--- a/mfda_30px_m/smart_toilet/results/scad/base/smart_toilet_lengths.xlsx
+++ b/mfda_30px_m/smart_toilet/results/scad/base/smart_toilet_lengths.xlsx
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.360000000000001</v>
+        <v>6.216000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>8.551999999999998</v>
+        <v>9.407999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9.811999999999999</v>
+        <v>9.412000000000001</v>
       </c>
     </row>
   </sheetData>
